--- a/biology/Botanique/Macoun/Macoun.xlsx
+++ b/biology/Botanique/Macoun/Macoun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macoun est un cultivar de pommier domestique. 
 Nom botanique: Malus domestica Bockh macoun
@@ -512,7 +524,9 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Variété diploïde.
 Groupe de floraison: B.</t>
@@ -543,7 +557,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hybride sélectionné de croisements McIntosh x Jersey Black
 Descendants:
@@ -575,9 +591,11 @@
           <t>Susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tavelure : élevée[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tavelure : élevée
 Mildiou : élevée
 Rouille : élevée
 Feu bactérien : moyenne</t>
@@ -608,7 +626,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La forte susceptibilité de ce cultivar aux maladies invite à l'éviter dans les jardins des particuliers où les traitements ne sont pas systématiques. On lui préférera un descendant résistant au moins à la tavelure.
 </t>
